--- a/ResourceNode_Info.xlsx
+++ b/ResourceNode_Info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\2_UNITIYGAME\DungeonRPG\Assets\JJData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68DA31E2-2150-4F15-829D-305A07F16917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC63854-7D39-479F-A484-E1F2487D1BE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ResourceNode" sheetId="4" r:id="rId1"/>
@@ -420,7 +420,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="77">
   <si>
     <t>쟈스민 기본 채집물</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -700,6 +700,18 @@
   </si>
   <si>
     <t>JSM_Node</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOD_HER_TEST_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test_Node</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1416,10 +1428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6679960-071D-47CA-A646-C617E7CF622A}">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1668,19 +1680,63 @@
         <v>0</v>
       </c>
     </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>30</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>1</v>
+      </c>
+      <c r="O6" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="J4:J5">
+  <conditionalFormatting sqref="J4:J6">
     <cfRule type="expression" dxfId="8" priority="4">
       <formula>AND(J4&lt;&gt;"", ISERROR(MATCH(J4, 드롭테이블id, 0)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L4:L5">
+  <conditionalFormatting sqref="L4:L6">
     <cfRule type="expression" dxfId="7" priority="3">
       <formula>AND(L4&lt;&gt;"", ISERROR(MATCH(L4, 드롭테이블id, 0)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M4:M5">
+  <conditionalFormatting sqref="M4:M6">
     <cfRule type="expression" dxfId="6" priority="1">
       <formula>AND(M4&lt;&gt;"", ISERROR(MATCH(M4, 특수조건id, 0)))</formula>
     </cfRule>
@@ -1694,7 +1750,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M4:M6" xr:uid="{77DB5830-F024-494A-B19C-F7AD061F3384}">
       <formula1>특수조건id</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4:L30 K6:K25 J6:J30 J4:K5 N4:N32" xr:uid="{F42B564B-3756-481A-AB54-7A2D4083505B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K7:K25 J7:J30 J4:K6 N4:N32 L4:L30" xr:uid="{F42B564B-3756-481A-AB54-7A2D4083505B}">
       <formula1>드롭테이블id</formula1>
     </dataValidation>
   </dataValidations>
@@ -1709,7 +1765,7 @@
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
